--- a/__repository/template_import/tbl_prm.xlsx
+++ b/__repository/template_import/tbl_prm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>prod_id</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>tahun</t>
+  </si>
+  <si>
+    <t>abc_cost</t>
+  </si>
+  <si>
+    <t>ovh_cost</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>profitable</t>
   </si>
 </sst>
 </file>
@@ -104,12 +116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,7 +425,7 @@
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,6 +437,7 @@
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -463,15 +475,23 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/__repository/template_import/tbl_prm.xlsx
+++ b/__repository/template_import/tbl_prm.xlsx
@@ -16,40 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>prod_id</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>descript</t>
-  </si>
-  <si>
-    <t>reduction</t>
-  </si>
-  <si>
-    <t>net_revenue</t>
-  </si>
-  <si>
-    <t>direct_cost</t>
-  </si>
-  <si>
-    <t>profit_lost</t>
-  </si>
-  <si>
-    <t>qty_produce</t>
-  </si>
-  <si>
-    <t>uom</t>
-  </si>
-  <si>
-    <t>cost_rate</t>
-  </si>
-  <si>
-    <t>qty_target</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>bulan</t>
   </si>
@@ -57,16 +24,37 @@
     <t>tahun</t>
   </si>
   <si>
-    <t>abc_cost</t>
-  </si>
-  <si>
-    <t>ovh_cost</t>
-  </si>
-  <si>
-    <t>revenue</t>
-  </si>
-  <si>
-    <t>profitable</t>
+    <t>Service ID</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Reduction</t>
+  </si>
+  <si>
+    <t>Direct Cost</t>
+  </si>
+  <si>
+    <t>Segmen</t>
+  </si>
+  <si>
+    <t>Service Group</t>
+  </si>
+  <si>
+    <t>Prod. Qty</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>Target Qty</t>
+  </si>
+  <si>
+    <t>Service Name</t>
   </si>
 </sst>
 </file>
@@ -422,14 +410,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -437,60 +427,47 @@
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
